--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +501,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +548,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +703,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +750,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +934,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +981,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1136,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1183,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1367,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1414,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1598,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1645,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1834,10 +1858,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1881,28 +1905,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1927,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2118,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2165,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2325,10 +2349,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2372,28 +2396,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2418,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2527,10 +2551,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2574,28 +2598,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2620,28 +2644,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2729,10 +2753,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2776,28 +2800,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2822,28 +2846,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2984,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3031,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3077,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3162,10 +3186,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3209,28 +3233,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3255,28 +3279,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3364,10 +3388,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3411,28 +3435,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3457,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3590,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3637,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3683,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3792,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3839,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4028,10 +4052,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4075,28 +4099,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4121,28 +4145,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4259,10 +4283,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4306,28 +4330,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4352,28 +4376,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4543,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4566,28 +4590,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4745,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4768,28 +4792,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4838,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4923,10 +4947,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4970,28 +4994,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5016,28 +5040,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5154,10 +5178,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5201,28 +5225,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5247,28 +5271,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5385,10 +5409,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5432,28 +5456,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5478,28 +5502,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5645,10 +5669,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5692,28 +5716,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5738,28 +5762,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5876,10 +5900,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5923,28 +5947,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5969,28 +5993,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6160,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6207,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6253,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6396,10 +6420,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6443,28 +6467,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6489,28 +6513,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6598,10 +6622,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6645,28 +6669,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6691,28 +6715,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6800,10 +6824,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6847,28 +6871,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6893,28 +6917,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7026,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7049,28 +7073,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7119,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7233,10 +7257,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7280,28 +7304,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7326,28 +7350,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7464,10 +7488,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7511,28 +7535,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7557,28 +7581,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7690,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7737,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7868,10 +7892,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7915,28 +7939,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7961,28 +7985,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8123,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
